--- a/covid19.xlsx
+++ b/covid19.xlsx
@@ -7,7 +7,7 @@
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="covid19" sheetId="1" r:id="rId1"/>
+    <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
@@ -50,6 +50,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="#,##0"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -102,8 +105,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -403,74 +407,74 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="10" width="15.7109375" style="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:10">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:10">
-      <c r="A2">
-        <v>674804878</v>
-      </c>
-      <c r="B2">
-        <v>101885</v>
-      </c>
-      <c r="C2">
-        <v>6759080</v>
-      </c>
-      <c r="D2">
-        <v>387</v>
-      </c>
-      <c r="E2">
-        <v>646935786</v>
-      </c>
-      <c r="F2">
-        <v>121798</v>
-      </c>
-      <c r="G2">
-        <v>21110012</v>
-      </c>
-      <c r="H2">
-        <v>42245</v>
-      </c>
-      <c r="I2">
+      <c r="A2" s="1">
+        <v>679234673</v>
+      </c>
+      <c r="B2" s="1">
+        <v>82092</v>
+      </c>
+      <c r="C2" s="1">
+        <v>6794997</v>
+      </c>
+      <c r="D2" s="1">
+        <v>404</v>
+      </c>
+      <c r="E2" s="1">
+        <v>652039196</v>
+      </c>
+      <c r="F2" s="1">
+        <v>131449</v>
+      </c>
+      <c r="G2" s="1">
+        <v>20400480</v>
+      </c>
+      <c r="H2" s="1">
+        <v>40453</v>
+      </c>
+      <c r="I2" s="1">
         <v>7944935131</v>
       </c>
-      <c r="J2">
+      <c r="J2" s="1">
         <v>231</v>
       </c>
     </row>

--- a/covid19.xlsx
+++ b/covid19.xlsx
@@ -16,34 +16,34 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
-    <t>cases</t>
-  </si>
-  <si>
-    <t>todayCases</t>
-  </si>
-  <si>
-    <t>deaths</t>
-  </si>
-  <si>
-    <t>todayDeaths</t>
-  </si>
-  <si>
-    <t>recovered</t>
-  </si>
-  <si>
-    <t>todayRecovered</t>
-  </si>
-  <si>
-    <t>active</t>
-  </si>
-  <si>
-    <t>critical</t>
-  </si>
-  <si>
-    <t>population</t>
-  </si>
-  <si>
-    <t>affectedCountries</t>
+    <t>Casos Totales</t>
+  </si>
+  <si>
+    <t>Casos de Hoy</t>
+  </si>
+  <si>
+    <t>Muertes Totales</t>
+  </si>
+  <si>
+    <t>Muertes de Hoy</t>
+  </si>
+  <si>
+    <t>Recuperados</t>
+  </si>
+  <si>
+    <t>Recuperados de Hoy</t>
+  </si>
+  <si>
+    <t>Activos</t>
+  </si>
+  <si>
+    <t>Críticos</t>
+  </si>
+  <si>
+    <t>Población</t>
+  </si>
+  <si>
+    <t>Países Afectados</t>
   </si>
 </sst>
 </file>
@@ -411,7 +411,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="10" width="15.7109375" style="1" customWidth="1"/>
+    <col min="1" max="5" width="15.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="18.7109375" style="1" customWidth="1"/>
+    <col min="7" max="10" width="15.7109375" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
@@ -448,28 +450,28 @@
     </row>
     <row r="2" spans="1:10">
       <c r="A2" s="1">
-        <v>679234673</v>
+        <v>683437303</v>
       </c>
       <c r="B2" s="1">
-        <v>82092</v>
+        <v>46322</v>
       </c>
       <c r="C2" s="1">
-        <v>6794997</v>
+        <v>6827815</v>
       </c>
       <c r="D2" s="1">
-        <v>404</v>
+        <v>173</v>
       </c>
       <c r="E2" s="1">
-        <v>652039196</v>
+        <v>656423039</v>
       </c>
       <c r="F2" s="1">
-        <v>131449</v>
+        <v>65665</v>
       </c>
       <c r="G2" s="1">
-        <v>20400480</v>
+        <v>20186449</v>
       </c>
       <c r="H2" s="1">
-        <v>40453</v>
+        <v>40102</v>
       </c>
       <c r="I2" s="1">
         <v>7944935131</v>
